--- a/imageCreationExcel/back/114/114_0.xlsx
+++ b/imageCreationExcel/back/114/114_0.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9514196842588476</v>
+        <v>0.9060023303436116</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.3786151233296604</v>
+        <v>0.9959771648203819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>22.91254930078011</v>
+        <v>12.86496689742938</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_T_contrast0.951_sharpness0.379_equalization22.913.jpg</t>
+          <t>1_0_contrast0.906_sharpness0.996_equalization12.865.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.788181585478084</v>
+        <v>0.9881569679039494</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8677974743796228</v>
+        <v>0.7708350324884308</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.6149564191908113</v>
+        <v>9.526527494342005</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_7_brightness2.788_contrast0.868_gamma0.615.jpg</t>
+          <t>2_B_contrast0.988_gamma0.771_equalization9.527.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.192265002042469</v>
+        <v>0.9027122010476973</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.1473368201149201</v>
+        <v>0.1616330368883065</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8.444533162526906</v>
+        <v>22.56401186636847</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_I_contrast1.192_sharpness0.147_equalization8.445.jpg</t>
+          <t>3_1_gamma0.903_sharpness0.162_equalization22.564.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.824588505749495</v>
+        <v>0.5191202126078198</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.09537681982101988</v>
+        <v>0.03952329038348931</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12.84993676420089</v>
+        <v>31.26992688845184</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_I_contrast0.825_sharpness0.095_equalization12.85.jpg</t>
+          <t>4_0_gamma0.519_sharpness0.04_equalization31.27.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,30 +663,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17.8631700457758</v>
+        <v>29.15355396535391</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8051053239159826</v>
+        <v>0.9303469768536105</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.5850052354101251</v>
+        <v>0.3792024157461428</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_B_brightness17.863_contrast0.805_gamma0.585.jpg</t>
+          <t>5_2_brightness29.154_gamma0.93_sharpness0.379.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7763527997892893</v>
+        <v>1.163602244986014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.1993552132320735</v>
+        <v>0.6962863905241063</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>11.62698602905737</v>
+        <v>0.1358149351582951</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_0_gamma0.776_sharpness0.199_equalization11.627.jpg</t>
+          <t>6_T_contrast1.164_gamma0.696_sharpness0.136.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.002648710962443</v>
+        <v>20.87933974517784</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.6898237347130883</v>
+        <v>1.005682656675614</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.3266293730114587</v>
+        <v>0.6067654175090776</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_I_contrast1.003_gamma0.69_sharpness0.327.jpg</t>
+          <t>7_T_brightness20.879_contrast1.006_gamma0.607.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.056154123319892</v>
+        <v>7.613516408480502</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.6950261248806737</v>
+        <v>0.8769449877065896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8.350322292294058</v>
+        <v>0.6550719963275071</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_C_contrast1.056_gamma0.695_equalization8.35.jpg</t>
+          <t>8_T_brightness7.614_contrast0.877_sharpness0.655.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,15 +831,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.890021265455452</v>
+        <v>1.012982752992638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9023418370512484</v>
+        <v>0.8647328190473533</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5.688412191910714</v>
+        <v>18.15797801297723</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_B_contrast0.89_sharpness0.902_equalization5.688.jpg</t>
+          <t>9_I_contrast1.013_gamma0.865_equalization18.158.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,15 +873,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.691812099980625</v>
+        <v>23.99664791356519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8481083348220793</v>
+        <v>1.095389610208169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.6227266191377987</v>
+        <v>0.4185425704693322</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_P_brightness2.692_contrast0.848_sharpness0.623.jpg</t>
+          <t>10_S_brightness23.997_gamma1.095_sharpness0.419.jpg</t>
         </is>
       </c>
     </row>
@@ -911,11 +911,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.170891823197821</v>
+        <v>2.045971599092971</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9832818819202034</v>
+        <v>0.7433051574081524</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.5164314195211882</v>
+        <v>0.6770834601504798</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_I_contrast1.171_gamma0.983_sharpness0.516.jpg</t>
+          <t>11_I_brightness2.046_gamma0.743_sharpness0.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9815844172362685</v>
+        <v>0.8259123059967061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9320696856987895</v>
+        <v>0.5170041600647183</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8837644078554101</v>
+        <v>0.6790936729424888</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_0_contrast0.982_gamma0.932_sharpness0.884.jpg</t>
+          <t>12_B_contrast0.826_gamma0.517_sharpness0.679.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7.298332740844495</v>
+        <v>0.8734599782724343</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.048896891526732</v>
+        <v>0.989171155174887</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8612506840377877</v>
+        <v>10.07816835941084</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_3_brightness7.298_contrast1.049_gamma0.861.jpg</t>
+          <t>13_S_contrast0.873_sharpness0.989_equalization10.078.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6167950692602265</v>
+        <v>0.9151665079889288</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5714211702685204</v>
+        <v>0.6984637181716711</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10.11179759033463</v>
+        <v>28.5957167688258</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_9_gamma0.617_sharpness0.571_equalization10.112.jpg</t>
+          <t>14_B_contrast0.915_sharpness0.698_equalization28.596.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14.7656553423931</v>
+        <v>0.9682506601743912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.063373982043724</v>
+        <v>1.178112910770299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.7440814431970192</v>
+        <v>0.4233859431085862</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_E_brightness14.766_contrast1.063_sharpness0.744.jpg</t>
+          <t>15_P_brightness0.968_contrast1.178_sharpness0.423.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8818096555190387</v>
+        <v>0.6563680450057481</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.2771135800326248</v>
+        <v>0.8092277159378037</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1141,14 +1141,14 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5.838631210014226</v>
+        <v>21.32137440555741</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_0_gamma0.882_sharpness0.277_equalization5.839.jpg</t>
+          <t>16_B_gamma0.656_sharpness0.809_equalization21.321.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9908726586688341</v>
+        <v>0.5072814637290272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.7834011756271153</v>
+        <v>0.7753646855384346</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.7282144965689864</v>
+        <v>13.33093093068447</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_2_contrast0.991_gamma0.783_sharpness0.728.jpg</t>
+          <t>17_I_gamma0.507_sharpness0.775_equalization13.331.jpg</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25.70500787864904</v>
+        <v>27.14703020281975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.134199697920254</v>
+        <v>1.148011838713697</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.7742971568862584</v>
+        <v>0.9442691002194641</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_8_brightness25.705_contrast1.134_sharpness0.774.jpg</t>
+          <t>18_8_brightness27.147_contrast1.148_gamma0.944.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9371281567991628</v>
+        <v>21.26775608129217</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.6413294428590375</v>
+        <v>0.9960385347353576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>20.92612620092373</v>
+        <v>0.8505600364741098</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_0_contrast0.937_gamma0.641_equalization20.926.jpg</t>
+          <t>19_8_brightness21.268_contrast0.996_gamma0.851.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.187021091169781</v>
+        <v>1.127480825363714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5374112457808574</v>
+        <v>0.5633919010568861</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.2052737496845585</v>
+        <v>0.1844741671266631</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_B_contrast1.187_gamma0.537_sharpness0.205.jpg</t>
+          <t>20_P_contrast1.127_gamma0.563_sharpness0.184.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,16 +1326,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26.71172641491027</v>
+        <v>1.115600440395795</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8019185490770337</v>
+        <v>0.9801710650621588</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.08196461244993056</v>
+        <v>30.49837434931737</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_I_brightness26.712_gamma0.802_sharpness0.082.jpg</t>
+          <t>21_1_contrast1.116_gamma0.98_equalization30.498.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7840033909682138</v>
+        <v>15.44387057376222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.3591902552784942</v>
+        <v>0.9939494627257164</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10.73781596653157</v>
+        <v>0.3479538069365695</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_2_gamma0.784_sharpness0.359_equalization10.738.jpg</t>
+          <t>22_P_brightness15.444_gamma0.994_sharpness0.348.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8762718023238957</v>
+        <v>2.077773763589696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.7407131851258177</v>
+        <v>0.7295668655142443</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7.060130244431507</v>
+        <v>0.9256083265343976</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_S_gamma0.876_sharpness0.741_equalization7.06.jpg</t>
+          <t>23_E_brightness2.078_gamma0.73_sharpness0.926.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,16 +1452,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8386219840096993</v>
+        <v>16.63241207992569</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.064894014767668</v>
+        <v>1.017025321273729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.3340618948401369</v>
+        <v>0.3409316341840563</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_8_contrast0.839_gamma1.065_sharpness0.334.jpg</t>
+          <t>24_S_brightness16.632_gamma1.017_sharpness0.341.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,15 +1503,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.175382079950762</v>
+        <v>0.9458432636591545</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8374666538974004</v>
+        <v>0.6378129472057472</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>17.30581402919229</v>
+        <v>29.31508158512345</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_contrast1.175_sharpness0.837_equalization17.306.jpg</t>
+          <t>25_S_contrast0.946_gamma0.638_equalization29.315.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,30 +1545,30 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4.526686094429638</v>
+        <v>0.9747200443720383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.6268326136177951</v>
+        <v>1.026502030751112</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.1392507550598619</v>
+        <v>0.7809331589763853</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_C_brightness4.527_gamma0.627_sharpness0.139.jpg</t>
+          <t>26_P_brightness0.975_contrast1.027_gamma0.781.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6.061233201508148</v>
+        <v>0.9443727306954307</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.09638184424133</v>
+        <v>1.081159086917255</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.2082188772670194</v>
+        <v>26.18758920213446</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_1_brightness6.061_contrast1.096_sharpness0.208.jpg</t>
+          <t>27_9_contrast0.944_gamma1.081_equalization26.188.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,24 +1620,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.7231760899029186</v>
+        <v>1.112308502949617</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.3311872427149743</v>
+        <v>0.7438009763569717</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>18.1216293678367</v>
+        <v>7.50950713487841</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_1_gamma0.723_sharpness0.331_equalization18.122.jpg</t>
+          <t>28_B_contrast1.112_gamma0.744_equalization7.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,15 +1671,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9217373250747146</v>
+        <v>0.9425104083782067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.2002174269686387</v>
+        <v>1.027587696484242</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>25.53035530130495</v>
+        <v>31.3385365434764</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_2_contrast0.922_sharpness0.2_equalization25.53.jpg</t>
+          <t>29_T_contrast0.943_gamma1.028_equalization31.339.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2.628424480366819</v>
+        <v>1.05576101839628</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9416330032138441</v>
+        <v>0.06867415212918317</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.7832699168289559</v>
+        <v>18.28835644212566</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_8_brightness2.628_contrast0.942_gamma0.783.jpg</t>
+          <t>30_2_contrast1.056_sharpness0.069_equalization18.288.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.117646253417461</v>
+        <v>0.5207708432690779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.021890284524305</v>
+        <v>0.6664128328223363</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.3046634131762848</v>
+        <v>12.42553378344613</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_P_contrast1.118_gamma1.022_sharpness0.305.jpg</t>
+          <t>31_9_gamma0.521_sharpness0.666_equalization12.426.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.051061223310073</v>
+        <v>20.62172959907387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.2789069749780399</v>
+        <v>1.142520270634825</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>15.4062077545849</v>
+        <v>1.087966140447181</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_P_contrast1.051_sharpness0.279_equalization15.406.jpg</t>
+          <t>32_0_brightness20.622_contrast1.143_gamma1.088.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.671774285976913</v>
+        <v>6.001866685461911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9955690996089569</v>
+        <v>1.02920465479197</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.5373331028505752</v>
+        <v>0.9036885436967008</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_7_brightness2.672_contrast0.996_gamma0.537.jpg</t>
+          <t>33_T_brightness6.002_contrast1.029_gamma0.904.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,15 +1881,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15.05771069477756</v>
+        <v>29.33586148493069</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9245512761403472</v>
+        <v>0.5090367260364544</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.6084366285106301</v>
+        <v>0.7904561509482109</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_0_brightness15.058_contrast0.925_sharpness0.608.jpg</t>
+          <t>34_8_brightness29.336_gamma0.509_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8258500725078646</v>
+        <v>1.215001334469895</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.06423846987645568</v>
+        <v>0.9746393933225789</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>18.11646677522552</v>
+        <v>0.6648976075505453</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_1_contrast0.826_sharpness0.064_equalization18.116.jpg</t>
+          <t>35_3_brightness1.215_gamma0.975_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.030501560379629</v>
+        <v>0.8325726023481397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.6225720890682712</v>
+        <v>0.8945866998919263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>16.52927699994622</v>
+        <v>0.5646263836566279</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_3_contrast1.031_gamma0.623_equalization16.529.jpg</t>
+          <t>36_I_contrast0.833_gamma0.895_sharpness0.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10.52750741969078</v>
+        <v>2.829217752242247</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.879938983976237</v>
+        <v>1.1106649743016</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.0442725333824</v>
+        <v>0.3637901375261024</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_7_brightness10.528_contrast0.88_gamma1.044.jpg</t>
+          <t>37_B_brightness2.829_contrast1.111_sharpness0.364.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>12.67691696983381</v>
+        <v>1.13103633977719</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.996492587708728</v>
+        <v>0.6499665691096604</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.3894961596822125</v>
+        <v>0.1131622759282958</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_S_brightness12.677_contrast0.996_sharpness0.389.jpg</t>
+          <t>38_I_contrast1.131_gamma0.65_sharpness0.113.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.176494438867053</v>
+        <v>19.08162541668332</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.613604943421472</v>
+        <v>1.081291246902681</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>18.71462754834391</v>
+        <v>0.7718150933108</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_1_contrast1.176_sharpness0.614_equalization18.715.jpg</t>
+          <t>39_E_brightness19.082_gamma1.081_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.948314953068121</v>
+        <v>4.465182014879138</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.7028124519155358</v>
+        <v>1.164413575674873</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>14.78037295113943</v>
+        <v>0.6783604424355583</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_C_contrast0.948_gamma0.703_equalization14.78.jpg</t>
+          <t>40_T_brightness4.465_contrast1.164_gamma0.678.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>18.31470732434615</v>
+        <v>1.039710201775966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.025857694776139</v>
+        <v>0.5490628926038894</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.4358086276001535</v>
+        <v>20.65677950003711</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_8_brightness18.315_contrast1.026_sharpness0.436.jpg</t>
+          <t>41_3_contrast1.04_sharpness0.549_equalization20.657.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,24 +2208,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>20.66073419188275</v>
+        <v>1.155953566092978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.1179653730911</v>
+        <v>0.7815471633363293</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.8284449272769412</v>
+        <v>0.8586627577546376</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_T_brightness20.661_contrast1.118_sharpness0.828.jpg</t>
+          <t>42_0_contrast1.156_gamma0.782_sharpness0.859.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6.529460463530111</v>
+        <v>0.8057493575440253</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.824334147230469</v>
+        <v>0.8398473020084372</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.986358188931215</v>
+        <v>4.544085514936873</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_I_brightness6.529_gamma0.824_sharpness0.986.jpg</t>
+          <t>43_E_contrast0.806_sharpness0.84_equalization4.544.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.045326533328443</v>
+        <v>26.03455896645702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8613906277479196</v>
+        <v>0.7197758794355307</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>13.1814027849275</v>
+        <v>0.3613471092985508</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_B_contrast1.045_gamma0.861_equalization13.181.jpg</t>
+          <t>44_I_brightness26.035_gamma0.72_sharpness0.361.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.182502397491255</v>
+        <v>10.57434651153213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5958539020721065</v>
+        <v>0.8517906122748798</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>22.80923150529811</v>
+        <v>0.5411938397658345</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_9_contrast1.183_gamma0.596_equalization22.809.jpg</t>
+          <t>45_C_brightness10.574_contrast0.852_gamma0.541.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>28.6355294770764</v>
+        <v>0.8414098856396797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.169915873949098</v>
+        <v>0.6862415200595779</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.8579590914977405</v>
+        <v>11.83982039003563</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_C_brightness28.636_contrast1.17_sharpness0.858.jpg</t>
+          <t>46_7_contrast0.841_sharpness0.686_equalization11.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.043703878587161</v>
+        <v>1.107071155212227</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8540073530535224</v>
+        <v>0.8004053318919482</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>24.4182130595853</v>
+        <v>6.346057704912416</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_1_contrast1.044_gamma0.854_equalization24.418.jpg</t>
+          <t>47_P_contrast1.107_gamma0.8_equalization6.346.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,15 +2469,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>20.45756351602251</v>
+        <v>16.45993605655009</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9568416359052441</v>
+        <v>0.903898650093319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.07976378362082616</v>
+        <v>0.7700208687624868</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_8_brightness20.458_gamma0.957_sharpness0.08.jpg</t>
+          <t>48_C_brightness16.46_contrast0.904_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
